--- a/www/terminologies/ValueSet-jdv-disposition-pretherapeutique-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-disposition-pretherapeutique-cisis.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103857</t>
+    <t>20250624152100</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JDV DispositionPretherapeutique CISIS</t>
+    <t>JDV Disposition Pretherapeutique CISIS</t>
   </si>
   <si>
     <t>Status</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:57+01:00</t>
+    <t>2025-06-24T15:21:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-disposition-pretherapeutique-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-disposition-pretherapeutique-cisis.xlsx
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251216141838</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,7 +69,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-12-16T14:18:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -153,7 +153,7 @@
     <t>233428003</t>
   </si>
   <si>
-    <t>thrombolyse d'une veine</t>
+    <t>thrombolyse veineuse</t>
   </si>
   <si>
     <t>43810009</t>
@@ -177,7 +177,7 @@
     <t>héparine</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/terminologie-atc</t>
+    <t>http://www.whocc.no/atc</t>
   </si>
 </sst>
 </file>
